--- a/biology/Zoologie/Aphelinidae/Aphelinidae.xlsx
+++ b/biology/Zoologie/Aphelinidae/Aphelinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aphelinidae sont une famille d'insectes hyménoptères apocrites térébrants de la super-famille des Chalcidoidea. C'est une famille d'insectes entomophages très utilisée en lutte biologique.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chalcidien de petite taille (0,6 à 2 mm). Corps allongé, variant du jaune pâle au marron foncé, rarement d'éclat métallique.
 Petit, peu sclérifié, non métallique,
@@ -550,7 +564,9 @@
           <t>Taxonomie : sous-familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Aphelinidae sont divisés en 7 sous-familles, dont 2 principales : Aphelininae (300 espèces), Coccophaginae (700 espèces), et 5 secondaires par leur nombre d'espèces : Eretmocerinae (52 espèces), Eriaporinae (22 espèces), Azotinae (90 espèces), Calesinae (3 espèces) et Eriaphytinae (2 espèces)).
 Cette famille comporte 33 genres regroupant 1 200 espèces décrites. 	
@@ -586,7 +602,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont en grande majorité des ecto ou endoparasitoides d'hémiptères sternorrhynches : cochenilles, pucerons, aleurodes.
 Certains parasitent des œufs d'orthoptères, lépidoptères ou des œufs, larves, pupes de diptères ou des Dryinidae.
@@ -624,7 +642,9 @@
           <t>Utilisation en lutte biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Aphelinidae constituent une des plus importantes familles utilisées en lutte biologique avec plus de 90 succès d'acclimatations.
 Aphelinus mali parasite le puceron lanigère du pommier Eriosoma lanigerum (cochenille en fait). D'origine américaine, il fut introduit avec succès en France en 1920. Il pond un  œuf par hôte. Il peut être à son tour parasité par les Pteromalides Asaphes  et Pachineuron.
